--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="167">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,109 +43,172 @@
     <t>return</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>stopped</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>filter</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>thick</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>fell</t>
@@ -154,193 +217,166 @@
     <t>china</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>wo</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
     <t>put</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>found</t>
   </si>
   <si>
-    <t>already</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>something</t>
+    <t>came</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
@@ -355,103 +391,124 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>best</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>mas</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>years</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>well</t>
@@ -815,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +880,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -905,16 +962,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -926,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -934,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9494949494949495</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -952,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.9453125</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -976,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -984,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8406779661016949</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1026,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1034,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9027027027027027</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1052,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1076,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1084,13 +1141,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8767123287671232</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1102,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K7">
-        <v>0.8406779661016949</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1126,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1134,13 +1191,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.8972972972972973</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,16 +1212,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K8">
-        <v>0.8311688311688312</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1176,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1184,13 +1241,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8555555555555555</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K9">
-        <v>0.7631578947368421</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1226,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1234,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1252,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K10">
-        <v>0.7359307359307359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L10">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1284,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8301886792452831</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1326,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1334,13 +1391,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7931034482758621</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1352,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K12">
-        <v>0.5757575757575758</v>
+        <v>0.675</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1384,13 +1441,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7906976744186046</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13">
-        <v>0.5675675675675675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1426,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1434,13 +1491,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7743589743589744</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1452,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K14">
-        <v>0.5416666666666666</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1476,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1484,13 +1541,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1502,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K15">
-        <v>0.5072463768115942</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1526,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1534,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7641509433962265</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,16 +1612,16 @@
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K16">
-        <v>0.4742857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1576,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1584,13 +1641,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7567567567567568</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,31 +1659,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K17">
-        <v>0.4633950120675784</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>576</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>579</v>
+        <v>20</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>667</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1634,13 +1691,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7435897435897436</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1652,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K18">
-        <v>0.4444444444444444</v>
+        <v>0.4971428571428572</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,13 +1741,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.74</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1705,16 +1762,16 @@
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K19">
-        <v>0.4285714285714285</v>
+        <v>0.4827031375703942</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1723,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,13 +1791,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7358490566037735</v>
+        <v>0.7635135135135135</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1752,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K20">
-        <v>0.4225352112676056</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1776,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1784,13 +1841,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7272727272727273</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1802,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1826,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,13 +1891,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6991150442477876</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1852,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K22">
-        <v>0.3863636363636364</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1876,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1884,13 +1941,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6911764705882353</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1902,31 +1959,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K23">
-        <v>0.3529411764705883</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1934,49 +1991,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6909090909090909</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24">
+        <v>0.40625</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>38</v>
-      </c>
-      <c r="D24">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24">
-        <v>0.3297872340425532</v>
-      </c>
-      <c r="L24">
-        <v>31</v>
-      </c>
-      <c r="M24">
-        <v>31</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1984,13 +2041,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6901408450704225</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2002,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K25">
-        <v>0.265625</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2026,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2034,13 +2091,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.675</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2052,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K26">
-        <v>0.263013698630137</v>
+        <v>0.3223593964334705</v>
       </c>
       <c r="L26">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="M26">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2073,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>538</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2084,13 +2141,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6410256410256411</v>
+        <v>0.725</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2102,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K27">
-        <v>0.25</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2126,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2134,13 +2191,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6213592233009708</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2152,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K28">
-        <v>0.2282608695652174</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2176,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2184,13 +2241,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6136363636363636</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2202,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K29">
-        <v>0.2083333333333333</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2291,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5961538461538461</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2252,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K30">
-        <v>0.1721854304635762</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2284,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5925925925925926</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2305,16 +2362,16 @@
         <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K31">
-        <v>0.1584158415841584</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2326,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2334,13 +2391,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5858585858585859</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2352,31 +2409,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K32">
-        <v>0.1497005988023952</v>
+        <v>0.22</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2384,13 +2441,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5454545454545454</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2402,31 +2459,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K33">
-        <v>0.1305418719211823</v>
+        <v>0.1881188118811881</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>353</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2434,13 +2491,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5384615384615384</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2452,31 +2509,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K34">
-        <v>0.1145038167938931</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L34">
         <v>15</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2484,13 +2541,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5195530726256983</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C35">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2502,31 +2559,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K35">
-        <v>0.09615384615384616</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35">
         <v>21</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2534,13 +2591,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5158730158730159</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2552,31 +2609,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K36">
-        <v>0.0703851261620186</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="L36">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>700</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2584,13 +2641,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5111111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2602,31 +2659,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K37">
-        <v>0.04103671706263499</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>888</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2634,13 +2691,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.49</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2652,31 +2709,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K38">
-        <v>0.03350515463917526</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>750</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2684,13 +2741,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4857142857142857</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2702,7 +2759,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="L39">
         <v>18</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>0.95</v>
+      </c>
+      <c r="O39">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2710,13 +2791,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4857142857142857</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2728,7 +2809,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40">
+        <v>0.1009852216748768</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>0.95</v>
+      </c>
+      <c r="O40">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2736,13 +2841,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.47</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C41">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2754,7 +2859,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41">
+        <v>0.09375</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2762,13 +2891,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.46875</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2780,7 +2909,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42">
+        <v>0.05992010652463382</v>
+      </c>
+      <c r="L42">
+        <v>45</v>
+      </c>
+      <c r="M42">
+        <v>49</v>
+      </c>
+      <c r="N42">
+        <v>0.92</v>
+      </c>
+      <c r="O42">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2788,13 +2941,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.46875</v>
+        <v>0.5625</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2806,7 +2959,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43">
+        <v>0.05519480519480519</v>
+      </c>
+      <c r="L43">
+        <v>51</v>
+      </c>
+      <c r="M43">
+        <v>56</v>
+      </c>
+      <c r="N43">
+        <v>0.91</v>
+      </c>
+      <c r="O43">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>873</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2814,13 +2991,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4635761589403973</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2832,7 +3009,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44">
+        <v>0.05489260143198091</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2840,13 +3041,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4634146341463415</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2858,7 +3059,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45">
+        <v>0.05019305019305019</v>
+      </c>
+      <c r="L45">
+        <v>39</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45">
+        <v>0.89</v>
+      </c>
+      <c r="O45">
+        <v>0.11</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2866,13 +3091,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.462962962962963</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2884,7 +3109,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46">
+        <v>0.01399253731343284</v>
+      </c>
+      <c r="L46">
+        <v>15</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>0.15</v>
+      </c>
+      <c r="O46">
+        <v>0.85</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1057</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2892,13 +3141,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4576271186440678</v>
+        <v>0.535</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2910,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2918,13 +3167,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4432989690721649</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2936,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2944,25 +3193,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4378378378378379</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C49">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>208</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2970,13 +3219,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4324324324324325</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2988,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2996,13 +3245,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4320987654320987</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3014,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3022,13 +3271,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4285714285714285</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3040,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>120</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3048,13 +3297,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4222222222222222</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3066,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3074,13 +3323,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4137931034482759</v>
+        <v>0.456953642384106</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3092,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3100,13 +3349,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.391304347826087</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3118,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3126,13 +3375,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3846153846153846</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3144,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3152,13 +3401,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3734939759036144</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3170,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3178,13 +3427,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.360655737704918</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3196,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3204,25 +3453,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3565891472868217</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="C59">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3230,13 +3479,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3552631578947368</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C60">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3248,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3256,13 +3505,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3539325842696629</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C61">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3274,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3282,13 +3531,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3333333333333333</v>
+        <v>0.4097035040431267</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3300,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>30</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3308,13 +3557,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3232323232323233</v>
+        <v>0.3952380952380952</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3326,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3334,13 +3583,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3231292517006803</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C64">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3352,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3360,13 +3609,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3191489361702128</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3378,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3386,13 +3635,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3106796116504854</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3404,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3412,13 +3661,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3061224489795918</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3430,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3438,13 +3687,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2857142857142857</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3456,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3464,13 +3713,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2769230769230769</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3482,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3490,25 +3739,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2702702702702703</v>
+        <v>0.3579545454545455</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3516,13 +3765,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.236734693877551</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C71">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="D71">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3534,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>561</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3542,13 +3791,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2344827586206897</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3560,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3568,13 +3817,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2278481012658228</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3586,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3594,25 +3843,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2140468227424749</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>235</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3620,13 +3869,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2108843537414966</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3638,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3646,25 +3895,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2081218274111675</v>
+        <v>0.2920353982300885</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D76">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3672,25 +3921,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2077922077922078</v>
+        <v>0.2880434782608696</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3698,13 +3947,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1946902654867257</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3716,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3724,13 +3973,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1921397379912664</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3742,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3750,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1785714285714286</v>
+        <v>0.2670299727520436</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>69</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3776,25 +4025,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1730013106159895</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="C81">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>631</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3802,25 +4051,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1712707182320442</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3828,13 +4077,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1621621621621622</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3846,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3854,13 +4103,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1523809523809524</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3872,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3880,13 +4129,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1467889908256881</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3898,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3906,25 +4155,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1365853658536585</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="C86">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D86">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>354</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3932,13 +4181,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3950,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3958,25 +4207,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1324503311258278</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3984,25 +4233,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1267605633802817</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>124</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4010,13 +4259,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1208791208791209</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4028,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4036,25 +4285,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1099744245524297</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C91">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D91">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E91">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>348</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4062,13 +4311,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1072463768115942</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C92">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4080,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>308</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4088,25 +4337,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1033210332103321</v>
+        <v>0.165938864628821</v>
       </c>
       <c r="C93">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4114,25 +4363,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1006711409395973</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D94">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>134</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4140,13 +4389,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0935672514619883</v>
+        <v>0.1634146341463415</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4158,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>155</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4166,25 +4415,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.09239130434782608</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C96">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4192,25 +4441,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.08695652173913043</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E97">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4218,25 +4467,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.0705596107055961</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="C98">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>382</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4244,25 +4493,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.06845965770171149</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E99">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>381</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4270,25 +4519,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.05785123966942149</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E100">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F100">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4296,25 +4545,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05362776025236593</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C101">
         <v>17</v>
       </c>
       <c r="D101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F101">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>300</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4322,25 +4571,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05322128851540616</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E102">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F102">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>338</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4348,25 +4597,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0445414847161572</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C103">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1094</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4374,25 +4623,337 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.032015065913371</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C104">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D104">
+        <v>22</v>
+      </c>
+      <c r="E104">
+        <v>0.09</v>
+      </c>
+      <c r="F104">
+        <v>0.91</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="C106">
+        <v>33</v>
+      </c>
+      <c r="D106">
+        <v>33</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.09113300492610837</v>
+      </c>
+      <c r="C107">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>42</v>
+      </c>
+      <c r="E107">
+        <v>0.12</v>
+      </c>
+      <c r="F107">
+        <v>0.88</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.08801955990220049</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+      <c r="D108">
+        <v>41</v>
+      </c>
+      <c r="E108">
+        <v>0.12</v>
+      </c>
+      <c r="F108">
+        <v>0.88</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.08368200836820083</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.07443082311733801</v>
+      </c>
+      <c r="C110">
+        <v>85</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+      <c r="E110">
+        <v>0.15</v>
+      </c>
+      <c r="F110">
+        <v>0.85</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.07202216066481995</v>
+      </c>
+      <c r="C111">
+        <v>26</v>
+      </c>
+      <c r="D111">
+        <v>30</v>
+      </c>
+      <c r="E111">
+        <v>0.13</v>
+      </c>
+      <c r="F111">
+        <v>0.87</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>30</v>
+      </c>
+      <c r="E112">
+        <v>0.2</v>
+      </c>
+      <c r="F112">
+        <v>0.8</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>0.13</v>
+      </c>
+      <c r="F113">
+        <v>0.87</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>0.05576923076923077</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>31</v>
+      </c>
+      <c r="E114">
+        <v>0.06</v>
+      </c>
+      <c r="F114">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>0.05494505494505494</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>22</v>
+      </c>
+      <c r="E115">
+        <v>0.09</v>
+      </c>
+      <c r="F115">
+        <v>0.91</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>0.04143126177024482</v>
+      </c>
+      <c r="C116">
         <v>44</v>
       </c>
-      <c r="E104">
-        <v>0.23</v>
-      </c>
-      <c r="F104">
-        <v>0.77</v>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>1028</v>
+      <c r="D116">
+        <v>54</v>
+      </c>
+      <c r="E116">
+        <v>0.19</v>
+      </c>
+      <c r="F116">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
